--- a/bin/testdata/testRead.xlsx
+++ b/bin/testdata/testRead.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ue\gametabtool\bin\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\GameTabTool\bin\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6993A6BB-E1AC-4A07-A263-DF055E75997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C313E3-94A3-42C5-8B12-BE61AF1194EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="1305" windowWidth="23790" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30525" yWindow="2895" windowWidth="20760" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/bin/testdata/testRead.xlsx
+++ b/bin/testdata/testRead.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\GameTabTool\bin\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C313E3-94A3-42C5-8B12-BE61AF1194EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC719CBD-365B-4D11-BCB1-D15FA5290A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30525" yWindow="2895" windowWidth="20760" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30765" yWindow="1350" windowWidth="20625" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E17B47-3782-47B7-8716-954B69907CB8}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,4 +685,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DF0F0-B671-4B12-AE1B-7EAE36CD619B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>